--- a/dataset/DataXLSX.xlsx
+++ b/dataset/DataXLSX.xlsx
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>100Th.</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>100Th.</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
